--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/biometric_attribute.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/biometric_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,242 +436,332 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>biometricTypeCode</t>
+          <t>DESCR</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>langCode</t>
+          <t>BMTYP_CODE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AB</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FOOT</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Print ofFOOT</t>
+          <t>Thumbs</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FTT</t>
+          <t>Print of Left and Right Thumbs</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>FNR</t>
+        </is>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Right Slab</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Print of Right Slab</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>FNR</t>
+        </is>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>LH</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Left Slab</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Print of Left Slab</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>FNR</t>
+        </is>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>LI</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Left Iris</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Print of Left Iris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Right Iris</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Print of Right Iris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>TM</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>الابهام</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>طباعة الإبهام الأيسر والأيمن</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Les pouces</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Empreinte des pouces gauche et droit</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>FNR</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>RH</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>لوح الحق</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>طباعة من اليمين لوح</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Dalle droite</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Impression de la dalle droite</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>FNR</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>LH</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>لوح اليسار</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>طباعة بلاطة اليسار</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Dalle gauche</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Impression de la dalle gauche</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>FNR</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>LI</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>غادر القزحية</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>طباعة القزحية اليسرى</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Iris gauche</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Gravure de Iris Gauche</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>IRS</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>الحق ايريس</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>طباعة القزحية اليمنى</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Iris droit</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Empreinte de l'iris droit</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>IRS</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TM</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Les pouces</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Empreinte des pouces gauche et droit</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>FNR</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>fra</t>
-        </is>
-      </c>
-      <c r="F8" t="b">
+      <c r="F11" t="b">
         <v>1</v>
       </c>
     </row>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/biometric_attribute.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx_files/biometric_attribute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,244 +434,364 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>lang_code</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>biometricTypeCode</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>langCode</t>
+          <t>DESCR</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>isActive</t>
+          <t>BMTYP_CODE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>is_active</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AB</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FOOT</t>
+          <t>eng</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Print ofFOOT</t>
+          <t>TM</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FTT</t>
+          <t>Thumbs</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Print of Left and Right Thumbs</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>FNR</t>
+        </is>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>eng</t>
         </is>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RH</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Right Slab</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Print of Right Slab</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>FNR</t>
+        </is>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>LH</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Left Slab</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Print of Left Slab</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>FNR</t>
+        </is>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>LI</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Left Iris</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Print of Left Iris</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>eng</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RI</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Right Iris</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Print of Right Iris</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>IRS</t>
+        </is>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>TM</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>الابهام</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>طباعة الإبهام الأيسر والأيمن</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Les pouces</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Empreinte des pouces gauche et droit</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>FNR</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>RH</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>لوح الحق</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>طباعة من اليمين لوح</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Dalle droite</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Impression de la dalle droite</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>FNR</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>LH</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>لوح اليسار</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>طباعة بلاطة اليسار</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Dalle gauche</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Impression de la dalle gauche</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>FNR</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>LI</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>غادر القزحية</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>طباعة القزحية اليسرى</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Iris gauche</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Gravure de Iris Gauche</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>IRS</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="F6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>fra</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>RI</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>الحق ايريس</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>طباعة القزحية اليمنى</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Iris droit</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Empreinte de l'iris droit</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>IRS</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ara</t>
-        </is>
-      </c>
-      <c r="F7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>TM</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Les pouces</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Empreinte des pouces gauche et droit</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>FNR</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>fra</t>
-        </is>
-      </c>
-      <c r="F8" t="b">
+      <c r="G11" t="b">
         <v>1</v>
       </c>
     </row>
